--- a/2020-09-02UT-Jupiter-Photometry.xlsx
+++ b/2020-09-02UT-Jupiter-Photometry.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{796D7EF2-B854-4320-81E7-2FCEF0300F43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7792CF3D-F2E9-4A14-B62E-BE8426EDD732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020"/>
+    <workbookView xWindow="31170" yWindow="1380" windowWidth="17625" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-09-02UT-Jupiter-Photometry" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -939,11 +950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,7 +1554,17 @@
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="L18">
+        <f>1-L14</f>
+        <v>0.88318979489386096</v>
+      </c>
       <c r="M18" s="2"/>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <f>L18/L9</f>
+        <v>19.441203368353634</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
